--- a/Product backlog.xlsx
+++ b/Product backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNISA Magistrale\Corsi\Software Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521F37A1-4386-4F20-B811-0A5E3AA078B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559369E8-2534-4BDC-9E2E-FE3AA7ECDC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,6 @@
     <t>User Story</t>
   </si>
   <si>
-    <t>Verificare che l'operando sia inserito correttamente nello stack.
-Verificare che un operando inserito sia leggibile correttamente.</t>
-  </si>
-  <si>
     <t>#2</t>
   </si>
   <si>
@@ -588,6 +584,10 @@
   </si>
   <si>
     <t xml:space="preserve">                  PRODUCT BACKLOG</t>
+  </si>
+  <si>
+    <t>Verificare che l'operando sia inserito correttamente nello stack.
+Verificare che la rimozione di un operando sia eseguita correttamente.</t>
   </si>
 </sst>
 </file>
@@ -1089,26 +1089,26 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="67" customWidth="1"/>
-    <col min="5" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.42578125" customWidth="1"/>
+    <col min="5" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1116,9 +1116,9 @@
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1126,7 +1126,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1169,18 +1169,18 @@
         <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1192,18 +1192,18 @@
         <v>2</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -1215,18 +1215,18 @@
         <v>2</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -1238,18 +1238,18 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
@@ -1261,18 +1261,18 @@
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
@@ -1284,18 +1284,18 @@
         <v>5</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -1307,18 +1307,18 @@
         <v>3</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -1330,18 +1330,18 @@
         <v>3</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1353,18 +1353,18 @@
         <v>3</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1376,18 +1376,18 @@
         <v>3</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -1399,18 +1399,18 @@
         <v>3</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1422,18 +1422,18 @@
         <v>3</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
@@ -1445,110 +1445,110 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="2">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3</v>
-      </c>
-      <c r="G20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="2">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="2">
-        <v>3</v>
-      </c>
-      <c r="G21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="2">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="2">
-        <v>3</v>
-      </c>
-      <c r="G22" s="6" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="2">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="2">
-        <v>3</v>
-      </c>
-      <c r="G23" s="6" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D24" s="2">
         <v>4</v>
@@ -1560,18 +1560,18 @@
         <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D25" s="2">
         <v>4</v>
@@ -1583,18 +1583,18 @@
         <v>3</v>
       </c>
       <c r="G25" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D26" s="2">
         <v>4</v>
@@ -1606,18 +1606,18 @@
         <v>3</v>
       </c>
       <c r="G26" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D27" s="2">
         <v>4</v>
@@ -1629,18 +1629,18 @@
         <v>3</v>
       </c>
       <c r="G27" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D28" s="2">
         <v>4</v>
@@ -1652,18 +1652,18 @@
         <v>3</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D29" s="2">
         <v>5</v>
@@ -1675,18 +1675,18 @@
         <v>8</v>
       </c>
       <c r="G29" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D30" s="2">
         <v>5</v>
@@ -1698,18 +1698,18 @@
         <v>5</v>
       </c>
       <c r="G30" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D31" s="2">
         <v>5</v>
@@ -1721,18 +1721,18 @@
         <v>5</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D32" s="2">
         <v>5</v>
@@ -1744,18 +1744,18 @@
         <v>5</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D33" s="2">
         <v>6</v>
@@ -1767,18 +1767,18 @@
         <v>2</v>
       </c>
       <c r="G33" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D34" s="2">
         <v>6</v>
@@ -1790,18 +1790,18 @@
         <v>3</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D35" s="2">
         <v>7</v>
@@ -1813,18 +1813,18 @@
         <v>3</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D36" s="2">
         <v>7</v>
@@ -1836,18 +1836,18 @@
         <v>3</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D37" s="2">
         <v>7</v>
@@ -1859,18 +1859,18 @@
         <v>3</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D38" s="2">
         <v>7</v>
@@ -1882,18 +1882,18 @@
         <v>3</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D39" s="2">
         <v>7</v>
@@ -1905,18 +1905,18 @@
         <v>3</v>
       </c>
       <c r="G39" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D40" s="2">
         <v>7</v>
@@ -1928,18 +1928,18 @@
         <v>3</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D41" s="2">
         <v>7</v>
@@ -1951,18 +1951,18 @@
         <v>3</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="D42" s="2">
         <v>7</v>
@@ -1974,18 +1974,18 @@
         <v>3</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D43" s="2">
         <v>7</v>
@@ -1997,18 +1997,18 @@
         <v>3</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="D44" s="2">
         <v>7</v>
@@ -2020,18 +2020,18 @@
         <v>3</v>
       </c>
       <c r="G44" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D45" s="2">
         <v>7</v>
@@ -2043,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
